--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2690.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2690.xlsx
@@ -354,7 +354,7 @@
         <v>2.419069233921417</v>
       </c>
       <c r="C1">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="D1">
         <v>2.33365313225737</v>

--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2690.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value2690.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.162547735180222</v>
+        <v>0.9831453561782837</v>
       </c>
       <c r="B1">
-        <v>2.419069233921417</v>
+        <v>1.895299792289734</v>
       </c>
       <c r="C1">
-        <v>15</v>
+        <v>5.257884502410889</v>
       </c>
       <c r="D1">
-        <v>2.33365313225737</v>
+        <v>2.229696035385132</v>
       </c>
       <c r="E1">
-        <v>1.215413048748706</v>
+        <v>1.315937161445618</v>
       </c>
     </row>
   </sheetData>
